--- a/NMCI assets - Mission Software FST.xlsx
+++ b/NMCI assets - Mission Software FST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1fcf6788476cb0/Desktop/merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9DFF7A-FC97-4AA6-90B3-8CC9E1034807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{0F9DFF7A-FC97-4AA6-90B3-8CC9E1034807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D79D923-666F-4687-87D8-72C09A399DEB}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2220" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -2662,9 +2662,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
@@ -2730,6 +2727,9 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3115,7 +3115,7 @@
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Email" dataDxfId="38" totalsRowDxfId="21" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Site(e.g. &quot;FRCSW&quot;)" totalsRowDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Room, WS, or Office (Room,_x000a_Cube or Office)" dataDxfId="34" totalsRowDxfId="19">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Room, WS, or Office (Room,_x000a_Cube or Office)" dataDxfId="37" totalsRowDxfId="19">
       <calculatedColumnFormula>CHOOSE(RANDBETWEEN(1,6),"WS-132",
 "WS-109",
 "WS-131",
@@ -3123,7 +3123,7 @@
 "O-02",
 "O-23")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Building - Floor" dataDxfId="37" totalsRowDxfId="18" dataCellStyle="Normal_Sheet1">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Building - Floor" dataDxfId="36" totalsRowDxfId="18" dataCellStyle="Normal_Sheet1">
       <calculatedColumnFormula>CHOOSE(RANDBETWEEN(1,14),"317",
 "334-1",
 "378-1",
@@ -3139,7 +3139,7 @@
 "OFFSITE",
 "Unknown")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Asset Status" dataDxfId="36" totalsRowDxfId="17" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Asset Status" dataDxfId="35" totalsRowDxfId="17" dataCellStyle="Normal_Sheet1"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Service ID" totalsRowDxfId="16"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Asset Number" totalsRowDxfId="15"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Machine Name" totalsRowDxfId="14"/>
@@ -3151,7 +3151,7 @@
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Visio" totalsRowDxfId="8"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Project" totalsRowDxfId="7"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Roxio_x000a_Seat?" totalsRowDxfId="6"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Date Last Validated Against NMCI Config_x000a_Report" dataDxfId="35" totalsRowDxfId="5"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Date Last Validated Against NMCI Config_x000a_Report" dataDxfId="34" totalsRowDxfId="5"/>
     <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Results of Validation Against NMCI Config_x000a_Report" totalsRowDxfId="4"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Developer Seat?  If yes, please fill out the administrator column ---------------&gt;" totalsRowDxfId="3"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Administrator for developer seat" totalsRowDxfId="2"/>
@@ -3494,10 +3494,10 @@
   </sheetPr>
   <dimension ref="A1:AH136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Q53" sqref="Q53"/>
+      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,7 +3697,7 @@
 "OPS",
 "F18FST.3a",
 "F18FST.7.7")</f>
-        <v>F18FST.7.3</v>
+        <v>F18FST.6.2</v>
       </c>
       <c r="D2" t="s">
         <v>231</v>
@@ -3731,11 +3731,11 @@
 "NAVAIR",
 "NTA",
 "Wyle")</f>
-        <v>NTA</v>
+        <v>ASI</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L33" ca="1" si="2">RANDBETWEEN(3682007405,4695007146)</f>
-        <v>4308445035</v>
+        <v>3967804730</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>233</v>
@@ -3747,7 +3747,7 @@
 "O-01",
 "O-02",
 "O-23")</f>
-        <v>O-02</v>
+        <v>O-23</v>
       </c>
       <c r="P2" s="10" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,14),"317",
@@ -3764,7 +3764,7 @@
 "N/A",
 "OFFSITE",
 "Unknown")</f>
-        <v>Hgr 6</v>
+        <v>94 B</v>
       </c>
       <c r="Q2" s="15"/>
       <c r="AD2" t="s">
@@ -3839,7 +3839,7 @@
 "OPS",
 "F18FST.3a",
 "F18FST.7.7")</f>
-        <v>F18FST.5.2</v>
+        <v>F18FST.5.5</v>
       </c>
       <c r="D3" t="s">
         <v>232</v>
@@ -3861,11 +3861,11 @@
       </c>
       <c r="K3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Wyle</v>
+        <v>GDIT</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="2"/>
-        <v>3754206608</v>
+        <v>4499804684</v>
       </c>
       <c r="M3" s="50" t="s">
         <v>234</v>
@@ -3877,7 +3877,7 @@
 "O-01",
 "O-02",
 "O-23")</f>
-        <v>O-23</v>
+        <v>WS-109</v>
       </c>
       <c r="P3" s="10" t="str">
         <f t="shared" ref="P3:P61" ca="1" si="4">CHOOSE(RANDBETWEEN(1,14),"317",
@@ -3894,7 +3894,7 @@
 "N/A",
 "OFFSITE",
 "Unknown")</f>
-        <v>317</v>
+        <v>94-B</v>
       </c>
       <c r="Q3" s="15"/>
       <c r="AD3" t="s">
@@ -3904,15 +3904,15 @@
     <row r="4" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="40">
         <f ca="1">RANDBETWEEN(10000,99990)</f>
-        <v>86257</v>
+        <v>83627</v>
       </c>
       <c r="B4" s="7" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,9),"F18FST.1","F18FST.2","F18FST.3","F18FST.4","F18FST.5","F18FST.6","F18FST.7","MRO","OPS")</f>
-        <v>F18FST.3</v>
+        <v>OPS</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.7.5</v>
+        <v>F18FST.7.6</v>
       </c>
       <c r="D4" t="s">
         <v>235</v>
@@ -3934,7 +3934,7 @@
 "Senior Aerospace Engineer - Deputy",
 "Aerospce Engineer",
 "Senior Aerospace Engineer - Team Lead")</f>
-        <v>Senior Aerospace Engineer</v>
+        <v>Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>413</v>
@@ -3945,11 +3945,11 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EPS</v>
+        <v>NTA</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4302982876</v>
+        <v>4655503107</v>
       </c>
       <c r="M4" s="51" t="s">
         <v>471</v>
@@ -3957,11 +3957,11 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-109</v>
+        <v>O-01</v>
       </c>
       <c r="P4" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="43"/>
       <c r="R4" s="7"/>
@@ -3985,15 +3985,15 @@
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <f t="shared" ref="A5:A60" ca="1" si="5">RANDBETWEEN(10000,99990)</f>
-        <v>44516</v>
+        <v>38087</v>
       </c>
       <c r="B5" s="48" t="str">
         <f t="shared" ref="B5:B9" ca="1" si="6">CHOOSE(RANDBETWEEN(1,9),"F18FST.1","F18FST.2","F18FST.3","F18FST.4","F18FST.5","F18FST.6","F18FST.7","MRO","OPS")</f>
-        <v>MRO</v>
+        <v>F18FST.6</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.5.7</v>
+        <v>OPS</v>
       </c>
       <c r="D5" t="s">
         <v>236</v>
@@ -4015,7 +4015,7 @@
 "Senior Aerospace Engineer - Deputy",
 "Aerospce Engineer",
 "Senior Aerospace Engineer - Team Lead")</f>
-        <v>Senior Mechanical Engineer</v>
+        <v>Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>414</v>
@@ -4025,37 +4025,37 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alutiiq</v>
+        <v>GDIT</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="2"/>
-        <v>3775675287</v>
+        <v>3805236713</v>
       </c>
       <c r="M5" s="51" t="s">
         <v>472</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-131</v>
+        <v>WS-109</v>
       </c>
       <c r="P5" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>334-1</v>
       </c>
       <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <f ca="1">RANDBETWEEN(10000,99990)</f>
-        <v>25777</v>
+        <v>56982</v>
       </c>
       <c r="B6" s="49" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,9),"F18FST.1","F18FST.2","F18FST.3","F18FST.4","F18FST.5","F18FST.6","F18FST.7","MRO","OPS")</f>
-        <v>OPS</v>
+        <v>F18FST.5</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MRO - Subsystems</v>
+        <v>F18FST.5.6</v>
       </c>
       <c r="D6" t="s">
         <v>237</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="G6" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Mechanical Engineer</v>
+        <v>Senior Aerospace Engineer</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>415</v>
@@ -4079,11 +4079,11 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Wyle</v>
+        <v>LMI Aerospace</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4276394558</v>
+        <v>4021255643</v>
       </c>
       <c r="M6" s="51" t="s">
         <v>473</v>
@@ -4091,11 +4091,11 @@
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-23</v>
+        <v>O-02</v>
       </c>
       <c r="P6" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>334-1</v>
+        <v>472</v>
       </c>
       <c r="Q6" s="39"/>
       <c r="R6" s="7"/>
@@ -4119,15 +4119,15 @@
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>83251</v>
+        <v>18370</v>
       </c>
       <c r="B7" s="49" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,9),"F18FST.1","F18FST.2","F18FST.3","F18FST.4","F18FST.5","F18FST.6","F18FST.7","MRO","OPS")</f>
-        <v>F18FST.5</v>
+        <v>F18FST.6</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.2.8</v>
+        <v>F18FST.5.6</v>
       </c>
       <c r="D7" t="s">
         <v>238</v>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="G7" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Deputy</v>
+        <v>Senior Aerospace Engineer - Team Lead</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>416</v>
@@ -4151,11 +4151,11 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alutiiq</v>
+        <v>EPS</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4002917673</v>
+        <v>3913290414</v>
       </c>
       <c r="M7" s="51" t="s">
         <v>474</v>
@@ -4163,11 +4163,11 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-132</v>
+        <v>O-02</v>
       </c>
       <c r="P7" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>472</v>
+        <v>94-B</v>
       </c>
       <c r="Q7" s="39"/>
       <c r="R7" s="7"/>
@@ -4191,15 +4191,15 @@
     <row r="8" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>86151</v>
+        <v>90674</v>
       </c>
       <c r="B8" s="49" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>F18FST.2</v>
+        <v>F18FST.7</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MRO - Logistics</v>
+        <v>F18FST.3</v>
       </c>
       <c r="D8" t="s">
         <v>239</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="G8" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Mechanical Engineer</v>
+        <v>Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>417</v>
@@ -4223,11 +4223,11 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LMI Aerospace</v>
+        <v>LMI</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3704807010</v>
+        <v>4574439627</v>
       </c>
       <c r="M8" s="51" t="s">
         <v>475</v>
@@ -4235,11 +4235,11 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-02</v>
+        <v>O-23</v>
       </c>
       <c r="P8" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="39"/>
       <c r="R8" s="7"/>
@@ -4263,15 +4263,15 @@
     <row r="9" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>71781</v>
+        <v>39684</v>
       </c>
       <c r="B9" s="49" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>OPS</v>
+        <v>F18FST.5</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.7.5</v>
+        <v>F18FST.4</v>
       </c>
       <c r="D9" t="s">
         <v>240</v>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="G9" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Team Lead</v>
+        <v>Senior Aerospace Engineer</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>418</v>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="L9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4472733987</v>
+        <v>4151402664</v>
       </c>
       <c r="M9" s="51" t="s">
         <v>476</v>
@@ -4307,11 +4307,11 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-01</v>
+        <v>O-02</v>
       </c>
       <c r="P9" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-2</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="39"/>
       <c r="R9" s="7"/>
@@ -4335,15 +4335,15 @@
     <row r="10" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>51057</v>
+        <v>21496</v>
       </c>
       <c r="B10" s="48" t="str">
         <f t="shared" ref="B10:B41" ca="1" si="8">CHOOSE(RANDBETWEEN(1,9),"F18FST.1","F18FST.2","F18FST.3","F18FST.4","F18FST.5","F18FST.6","F18FST.7","MRO","OPS")</f>
-        <v>F18FST.3</v>
+        <v>OPS</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.5.1</v>
+        <v>F18FST.2.2</v>
       </c>
       <c r="D10" t="s">
         <v>241</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="G10" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospace Engineer - Project Lead</v>
+        <v>Aerospce Engineer</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>419</v>
@@ -4366,37 +4366,37 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GDIT</v>
+        <v>Wyle</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>3790820177</v>
+        <v>4075607953</v>
       </c>
       <c r="M10" s="51" t="s">
         <v>477</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-01</v>
+        <v>WS-131</v>
       </c>
       <c r="P10" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hgr 6</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>14345</v>
+        <v>19343</v>
       </c>
       <c r="B11" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.5</v>
+        <v>F18FST.6</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MRO - Support Equipment</v>
+        <v>F18FST.2.8</v>
       </c>
       <c r="D11" t="s">
         <v>242</v>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="G11" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Project Lead</v>
+        <v>Senior Aerospace Engineer</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>420</v>
@@ -4420,11 +4420,11 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ASI</v>
+        <v>LMI Aerospace</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4189036350</v>
+        <v>4371048476</v>
       </c>
       <c r="M11" s="51" t="s">
         <v>478</v>
@@ -4432,11 +4432,11 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-02</v>
+        <v>WS-131</v>
       </c>
       <c r="P11" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
+        <v>Hgr 6</v>
       </c>
       <c r="Q11" s="39"/>
       <c r="R11" s="7"/>
@@ -4460,15 +4460,15 @@
     <row r="12" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>69999</v>
+        <v>10857</v>
       </c>
       <c r="B12" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.2</v>
+        <v>F18FST.5</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.4.3</v>
+        <v>F18FST.3.4</v>
       </c>
       <c r="D12" t="s">
         <v>243</v>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="G12" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Team Lead</v>
+        <v>Senior Aerospace Engineer</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>421</v>
@@ -4492,11 +4492,11 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GDIT</v>
+        <v>NAVAIR</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4235428852</v>
+        <v>4669675825</v>
       </c>
       <c r="M12" s="51" t="s">
         <v>479</v>
@@ -4504,11 +4504,11 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-131</v>
+        <v>WS-132</v>
       </c>
       <c r="P12" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-2</v>
+        <v>472</v>
       </c>
       <c r="Q12" s="39"/>
       <c r="R12" s="7"/>
@@ -4529,18 +4529,18 @@
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
     </row>
-    <row r="13" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>83058</v>
+        <v>18955</v>
       </c>
       <c r="B13" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.1</v>
+        <v>MRO</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.2.7</v>
+        <v>MRO - Avionics</v>
       </c>
       <c r="D13" t="s">
         <v>244</v>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="G13" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer</v>
+        <v>Senior Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>422</v>
@@ -4564,11 +4564,11 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alutiiq</v>
+        <v>Wyle</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4361845094</v>
+        <v>4328955447</v>
       </c>
       <c r="M13" s="51" t="s">
         <v>480</v>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="P13" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Unknown</v>
+        <v>317</v>
       </c>
       <c r="Q13" s="39"/>
       <c r="R13" s="7"/>
@@ -4604,15 +4604,15 @@
     <row r="14" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>95986</v>
+        <v>89678</v>
       </c>
       <c r="B14" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.2</v>
+        <v>F18FST.4</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.7.2</v>
+        <v>F18FST.5.8</v>
       </c>
       <c r="D14" t="s">
         <v>245</v>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="G14" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Team Lead</v>
+        <v>Mechanical Engineer</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>423</v>
@@ -4636,11 +4636,11 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EPS</v>
+        <v>NTA</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4614303669</v>
+        <v>4252996994</v>
       </c>
       <c r="M14" s="51" t="s">
         <v>481</v>
@@ -4648,11 +4648,11 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-01</v>
+        <v>WS-132</v>
       </c>
       <c r="P14" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>472</v>
+        <v>OFFSITE</v>
       </c>
       <c r="Q14" s="39"/>
       <c r="R14" s="7"/>
@@ -4676,15 +4676,15 @@
     <row r="15" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>75395</v>
+        <v>78143</v>
       </c>
       <c r="B15" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.5</v>
+        <v>F18FST.1</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.7.5</v>
+        <v>F18FST.3</v>
       </c>
       <c r="D15" t="s">
         <v>246</v>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G15" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospce Engineer</v>
+        <v>Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>424</v>
@@ -4708,11 +4708,11 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GDIT</v>
+        <v>NTA</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3814564096</v>
+        <v>4486958136</v>
       </c>
       <c r="M15" s="51" t="s">
         <v>482</v>
@@ -4720,11 +4720,11 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-132</v>
+        <v>WS-109</v>
       </c>
       <c r="P15" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Unknown</v>
+        <v>378-1</v>
       </c>
       <c r="Q15" s="39"/>
       <c r="R15" s="7"/>
@@ -4745,18 +4745,18 @@
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
     </row>
-    <row r="16" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>68335</v>
+        <v>47504</v>
       </c>
       <c r="B16" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.1</v>
+        <v>MRO</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.3.2</v>
+        <v>F18FST.7.4</v>
       </c>
       <c r="D16" t="s">
         <v>247</v>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="G16" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Mechanical Engineer</v>
+        <v>Aerospce Engineer</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>425</v>
@@ -4780,11 +4780,11 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GDIT</v>
+        <v>EPS</v>
       </c>
       <c r="L16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4065552672</v>
+        <v>4591128793</v>
       </c>
       <c r="M16" s="51" t="s">
         <v>483</v>
@@ -4792,11 +4792,11 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-02</v>
+        <v>WS-131</v>
       </c>
       <c r="P16" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-1</v>
+        <v>Unknown</v>
       </c>
       <c r="Q16" s="39"/>
       <c r="R16" s="7"/>
@@ -4817,18 +4817,18 @@
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>95496</v>
+        <v>45802</v>
       </c>
       <c r="B17" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.2</v>
+        <v>F18FST.7</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.1</v>
+        <v>F18FST.2.5</v>
       </c>
       <c r="D17" t="s">
         <v>248</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="G17" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Project Lead</v>
+        <v>Senior Aerospace Engineer - Team Lead</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>426</v>
@@ -4852,11 +4852,11 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>AMPS</v>
+        <v>Alutiiq</v>
       </c>
       <c r="L17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4413544487</v>
+        <v>4656701193</v>
       </c>
       <c r="M17" s="51" t="s">
         <v>484</v>
@@ -4864,11 +4864,11 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-02</v>
+        <v>WS-109</v>
       </c>
       <c r="P17" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hgr 6</v>
+        <v>Unknown</v>
       </c>
       <c r="Q17" s="39"/>
       <c r="R17" s="7"/>
@@ -4889,10 +4889,10 @@
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
     </row>
-    <row r="18" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>46207</v>
+        <v>85256</v>
       </c>
       <c r="B18" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.3.1</v>
+        <v>F18FST.3.6</v>
       </c>
       <c r="D18" t="s">
         <v>249</v>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="G18" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Mechanical Engineer</v>
+        <v>Senior Aerospace Engineer - Deputy</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>427</v>
@@ -4924,11 +4924,11 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LMI</v>
+        <v>Wyle</v>
       </c>
       <c r="L18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4523897001</v>
+        <v>4274734756</v>
       </c>
       <c r="M18" s="51" t="s">
         <v>485</v>
@@ -4936,11 +4936,11 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-132</v>
+        <v>O-02</v>
       </c>
       <c r="P18" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6-2</v>
+        <v>334-1</v>
       </c>
       <c r="Q18" s="39"/>
       <c r="R18" s="7"/>
@@ -4961,18 +4961,18 @@
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
     </row>
-    <row r="19" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>31148</v>
+        <v>37509</v>
       </c>
       <c r="B19" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>MRO</v>
+        <v>OPS</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.3.1</v>
+        <v>F18FST.2.9</v>
       </c>
       <c r="D19" t="s">
         <v>250</v>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="G19" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Mechanical Engineer</v>
+        <v>Aerospce Engineer</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>428</v>
@@ -4996,11 +4996,11 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EPS</v>
+        <v>Alutiiq</v>
       </c>
       <c r="L19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3695692053</v>
+        <v>4309066395</v>
       </c>
       <c r="M19" s="51" t="s">
         <v>486</v>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="P19" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94-B</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="39"/>
       <c r="R19" s="7"/>
@@ -5033,18 +5033,18 @@
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
     </row>
-    <row r="20" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>46605</v>
+        <v>74097</v>
       </c>
       <c r="B20" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.6</v>
+        <v>F18FST.4</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>OPS - Leadership</v>
+        <v>F18FST.3.2</v>
       </c>
       <c r="D20" t="s">
         <v>251</v>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="G20" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Project Lead</v>
+        <v>Aerospce Engineer</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>429</v>
@@ -5068,11 +5068,11 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GDIT</v>
+        <v>LMI</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4664403183</v>
+        <v>3969583486</v>
       </c>
       <c r="M20" s="51" t="s">
         <v>487</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="P20" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Unknown</v>
+        <v>94 B</v>
       </c>
       <c r="Q20" s="39"/>
       <c r="R20" s="7"/>
@@ -5105,18 +5105,18 @@
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>52784</v>
+        <v>64199</v>
       </c>
       <c r="B21" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.3</v>
+        <v>F18FST.6</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.4.1</v>
+        <v>F18FST.6.1</v>
       </c>
       <c r="D21" t="s">
         <v>252</v>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="G21" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Project Lead</v>
+        <v>Senior Aerospace Engineer - Deputy</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>430</v>
@@ -5140,11 +5140,11 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alutiiq</v>
+        <v>AMPS</v>
       </c>
       <c r="L21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4358032072</v>
+        <v>3855613137</v>
       </c>
       <c r="M21" s="51" t="s">
         <v>488</v>
@@ -5152,11 +5152,11 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-02</v>
+        <v>WS-132</v>
       </c>
       <c r="P21" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>469</v>
+        <v>317</v>
       </c>
       <c r="Q21" s="39"/>
       <c r="R21" s="7"/>
@@ -5177,18 +5177,18 @@
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>97013</v>
+        <v>17595</v>
       </c>
       <c r="B22" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.6</v>
+        <v>F18FST.1</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.4.2</v>
+        <v>F18FST.5.3</v>
       </c>
       <c r="D22" t="s">
         <v>253</v>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="L22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4441129296</v>
+        <v>4193281754</v>
       </c>
       <c r="M22" s="51" t="s">
         <v>489</v>
@@ -5224,11 +5224,11 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-131</v>
+        <v>O-01</v>
       </c>
       <c r="P22" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Unknown</v>
+        <v>378-2</v>
       </c>
       <c r="Q22" s="39"/>
       <c r="R22" s="7"/>
@@ -5252,15 +5252,15 @@
     <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>28107</v>
+        <v>49835</v>
       </c>
       <c r="B23" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.3</v>
+        <v>OPS</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.6.1</v>
+        <v>MRO - Support Equipment</v>
       </c>
       <c r="D23" t="s">
         <v>254</v>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="G23" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Deputy</v>
+        <v>Senior Aerospace Engineer - Team Lead</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>432</v>
@@ -5284,11 +5284,11 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ASI</v>
+        <v>D3</v>
       </c>
       <c r="L23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3852523979</v>
+        <v>3825844648</v>
       </c>
       <c r="M23" s="51" t="s">
         <v>490</v>
@@ -5296,11 +5296,11 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-109</v>
+        <v>O-23</v>
       </c>
       <c r="P23" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94 B</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="39"/>
       <c r="R23" s="7"/>
@@ -5324,15 +5324,15 @@
     <row r="24" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>98006</v>
+        <v>44043</v>
       </c>
       <c r="B24" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>MRO</v>
+        <v>F18FST.1</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.4.4</v>
+        <v>F18FST.5.2</v>
       </c>
       <c r="D24" t="s">
         <v>255</v>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="G24" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospace Engineer</v>
+        <v>Senior Mechanical Engineer</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>433</v>
@@ -5356,11 +5356,11 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Wyle</v>
+        <v>D3</v>
       </c>
       <c r="L24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4200015540</v>
+        <v>4116185429</v>
       </c>
       <c r="M24" s="51" t="s">
         <v>491</v>
@@ -5368,11 +5368,11 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-131</v>
+        <v>O-02</v>
       </c>
       <c r="P24" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>378-1</v>
       </c>
       <c r="Q24" s="39"/>
       <c r="R24" s="7"/>
@@ -5393,18 +5393,18 @@
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>29296</v>
+        <v>16302</v>
       </c>
       <c r="B25" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>OPS</v>
+        <v>F18FST.2</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.4.5</v>
+        <v>F18FST.3.6</v>
       </c>
       <c r="D25" t="s">
         <v>256</v>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="G25" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Team Lead</v>
+        <v>Senior Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>434</v>
@@ -5428,11 +5428,11 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EPS</v>
+        <v>NAVAIR</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4249190616</v>
+        <v>3741340514</v>
       </c>
       <c r="M25" s="51" t="s">
         <v>492</v>
@@ -5440,11 +5440,11 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-109</v>
+        <v>O-23</v>
       </c>
       <c r="P25" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>334-1</v>
       </c>
       <c r="Q25" s="39"/>
       <c r="R25" s="7"/>
@@ -5465,18 +5465,18 @@
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
     </row>
-    <row r="26" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>19885</v>
+        <v>97179</v>
       </c>
       <c r="B26" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.6</v>
+        <v>OPS</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.6.2</v>
+        <v>F18FST.5.8</v>
       </c>
       <c r="D26" t="s">
         <v>257</v>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="G26" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospce Engineer</v>
+        <v>Aerospace Engineer</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>435</v>
@@ -5500,11 +5500,11 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LMI</v>
+        <v>LMI Aerospace</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3975515656</v>
+        <v>4059967162</v>
       </c>
       <c r="M26" s="51" t="s">
         <v>494</v>
@@ -5512,11 +5512,11 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-131</v>
+        <v>O-01</v>
       </c>
       <c r="P26" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-1</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="39"/>
       <c r="R26" s="7"/>
@@ -5540,15 +5540,15 @@
     <row r="27" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>79813</v>
+        <v>76095</v>
       </c>
       <c r="B27" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.7</v>
+        <v>F18FST.4</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.7.1</v>
+        <v>F18FST.3.7</v>
       </c>
       <c r="D27" t="s">
         <v>258</v>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="G27" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer</v>
+        <v>Senior Aerospace Engineer - Deputy</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>436</v>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="L27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4416758202</v>
+        <v>4183258683</v>
       </c>
       <c r="M27" s="51" t="s">
         <v>493</v>
@@ -5584,11 +5584,11 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-02</v>
+        <v>WS-131</v>
       </c>
       <c r="P27" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hgr 6</v>
+        <v>Unknown</v>
       </c>
       <c r="Q27" s="39"/>
       <c r="R27" s="7"/>
@@ -5609,18 +5609,18 @@
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
     </row>
-    <row r="28" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>80797</v>
+        <v>75438</v>
       </c>
       <c r="B28" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.5</v>
+        <v>OPS</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.3.5</v>
+        <v>F18FST.2.3</v>
       </c>
       <c r="D28" t="s">
         <v>259</v>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="G28" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Deputy</v>
+        <v>Aerospce Engineer</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>437</v>
@@ -5644,11 +5644,11 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LMI</v>
+        <v>NTA</v>
       </c>
       <c r="L28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4298230407</v>
+        <v>4018120332</v>
       </c>
       <c r="M28" s="51" t="s">
         <v>495</v>
@@ -5656,11 +5656,11 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-01</v>
+        <v>O-23</v>
       </c>
       <c r="P28" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6-2</v>
+        <v>317</v>
       </c>
       <c r="Q28" s="39"/>
       <c r="R28" s="7"/>
@@ -5684,15 +5684,15 @@
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>77146</v>
+        <v>77874</v>
       </c>
       <c r="B29" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.4</v>
+        <v>F18FST.2</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MRO - Logistics</v>
+        <v>F18FST.4.1</v>
       </c>
       <c r="D29" t="s">
         <v>260</v>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="G29" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Project Lead</v>
+        <v>Aerospce Engineer</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>438</v>
@@ -5716,11 +5716,11 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Alutiig</v>
+        <v>Alutiiq</v>
       </c>
       <c r="L29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3789311826</v>
+        <v>4304522512</v>
       </c>
       <c r="M29" s="51" t="s">
         <v>496</v>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="P29" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>334-1</v>
+        <v>6-2</v>
       </c>
       <c r="Q29" s="39"/>
       <c r="R29" s="7"/>
@@ -5756,15 +5756,15 @@
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>51820</v>
+        <v>19058</v>
       </c>
       <c r="B30" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.1</v>
+        <v>F18FST.3</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MRO - Avionics</v>
+        <v>F18FST.2.5</v>
       </c>
       <c r="D30" t="s">
         <v>261</v>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="G30" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Mechanical Engineer</v>
+        <v>Mechanical Engineer</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>439</v>
@@ -5788,11 +5788,11 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LMI Aerospace</v>
+        <v>D3</v>
       </c>
       <c r="L30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4161735597</v>
+        <v>3685556503</v>
       </c>
       <c r="M30" s="51" t="s">
         <v>497</v>
@@ -5800,11 +5800,11 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>O-01</v>
+        <v>WS-109</v>
       </c>
       <c r="P30" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6-2</v>
+        <v>Hgr 6</v>
       </c>
       <c r="Q30" s="39"/>
       <c r="R30" s="7"/>
@@ -5825,18 +5825,18 @@
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
     </row>
-    <row r="31" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>99522</v>
+        <v>86652</v>
       </c>
       <c r="B31" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.5</v>
+        <v>F18FST.6</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.2.7</v>
+        <v>F18FST.7.6</v>
       </c>
       <c r="D31" t="s">
         <v>262</v>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="G31" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospace Engineer - Project Lead</v>
+        <v>Senior Aerospace Engineer - Team Lead</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>440</v>
@@ -5860,11 +5860,11 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NAVAIR</v>
+        <v>Alutiig</v>
       </c>
       <c r="L31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3795042803</v>
+        <v>3907242254</v>
       </c>
       <c r="M31" s="51" t="s">
         <v>498</v>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="P31" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94 B</v>
+        <v>N/A</v>
       </c>
       <c r="Q31" s="39"/>
       <c r="R31" s="7"/>
@@ -5897,10 +5897,10 @@
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
     </row>
-    <row r="32" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>60165</v>
+        <v>70077</v>
       </c>
       <c r="B32" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F18FST.6</v>
+        <v>MRO - Structures</v>
       </c>
       <c r="D32" t="s">
         <v>263</v>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="G32" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Mechanical Engineer</v>
+        <v>Aerospce Engineer</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>441</v>
@@ -5932,11 +5932,11 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NAVAIR</v>
+        <v>LMI Aerospace</v>
       </c>
       <c r="L32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4138731645</v>
+        <v>4555935011</v>
       </c>
       <c r="M32" s="51" t="s">
         <v>499</v>
@@ -5944,11 +5944,11 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WS-109</v>
+        <v>O-02</v>
       </c>
       <c r="P32" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-1</v>
+        <v>Unknown</v>
       </c>
       <c r="Q32" s="39"/>
       <c r="R32" s="7"/>
@@ -5969,18 +5969,18 @@
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
     </row>
-    <row r="33" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>34311</v>
+        <v>71023</v>
       </c>
       <c r="B33" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.5</v>
+        <v>F18FST.1</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MRO - Leasdership</v>
+        <v>F18FST.3.3</v>
       </c>
       <c r="D33" t="s">
         <v>264</v>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="G33" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Project Lead</v>
+        <v>Aerospace Engineer</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>442</v>
@@ -6004,11 +6004,11 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NAVAIR</v>
+        <v>LMI Aerospace</v>
       </c>
       <c r="L33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3841865508</v>
+        <v>4363484484</v>
       </c>
       <c r="M33" s="51" t="s">
         <v>500</v>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="P33" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>334-1</v>
+        <v>6-2</v>
       </c>
       <c r="Q33" s="39"/>
       <c r="R33" s="7"/>
@@ -6041,14 +6041,14 @@
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>23965</v>
+        <v>11990</v>
       </c>
       <c r="B34" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.1</v>
+        <v>F18FST.6</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ref="C34:C60" ca="1" si="9">CHOOSE(RANDBETWEEN(1,58),"F18FST.1",
@@ -6110,7 +6110,7 @@
 "OPS",
 "F18FST.3a",
 "F18FST.7.7")</f>
-        <v>OPS</v>
+        <v>F18FST.7.5</v>
       </c>
       <c r="D34" t="s">
         <v>265</v>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="G34" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Mechanical Engineer</v>
+        <v>Senior Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>443</v>
@@ -6146,11 +6146,11 @@
 "NAVAIR",
 "NTA",
 "Wyle")</f>
-        <v>GDIT</v>
+        <v>Wyle</v>
       </c>
       <c r="L34" s="7">
         <f t="shared" ref="L34:L61" ca="1" si="11">RANDBETWEEN(3682007405,4695007146)</f>
-        <v>4189599067</v>
+        <v>4371602289</v>
       </c>
       <c r="M34" s="51" t="s">
         <v>501</v>
@@ -6163,11 +6163,11 @@
 "O-01",
 "O-02",
 "O-23")</f>
-        <v>O-01</v>
+        <v>WS-131</v>
       </c>
       <c r="P34" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>469</v>
+        <v>378-2</v>
       </c>
       <c r="Q34" s="39"/>
       <c r="R34" s="7"/>
@@ -6188,18 +6188,18 @@
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>55342</v>
+        <v>88130</v>
       </c>
       <c r="B35" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>MRO</v>
+        <v>OPS</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.7.1</v>
+        <v>F18FST.5.6</v>
       </c>
       <c r="D35" t="s">
         <v>266</v>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="G35" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Mechanical Engineer</v>
+        <v>Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>444</v>
@@ -6223,11 +6223,11 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>D3</v>
+        <v>Alutiiq</v>
       </c>
       <c r="L35" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4269689238</v>
+        <v>4551524995</v>
       </c>
       <c r="M35" s="51" t="s">
         <v>502</v>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="P35" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>469</v>
+        <v>N/A</v>
       </c>
       <c r="Q35" s="39"/>
       <c r="R35" s="7"/>
@@ -6260,18 +6260,18 @@
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>17296</v>
+        <v>89259</v>
       </c>
       <c r="B36" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>OPS</v>
+        <v>F18FST.1</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.3a</v>
+        <v>F18FST.2.4</v>
       </c>
       <c r="D36" t="s">
         <v>267</v>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="G36" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Team Lead</v>
+        <v>Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>445</v>
@@ -6295,11 +6295,11 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>D3</v>
+        <v>LMI Aerospace</v>
       </c>
       <c r="L36" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4223252679</v>
+        <v>3914187460</v>
       </c>
       <c r="M36" s="51" t="s">
         <v>503</v>
@@ -6307,11 +6307,11 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-23</v>
+        <v>O-02</v>
       </c>
       <c r="P36" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>334-1</v>
+        <v>378-2</v>
       </c>
       <c r="Q36" s="39"/>
       <c r="R36" s="7"/>
@@ -6335,15 +6335,15 @@
     <row r="37" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>98054</v>
+        <v>53992</v>
       </c>
       <c r="B37" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.2</v>
+        <v>OPS</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>MRO - Avionics</v>
+        <v>F18FST.3.3</v>
       </c>
       <c r="D37" t="s">
         <v>268</v>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="G37" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospce Engineer</v>
+        <v>Senior Aerospace Engineer - Team Lead</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>446</v>
@@ -6367,11 +6367,11 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>LMI</v>
+        <v>Alutiig</v>
       </c>
       <c r="L37" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4561488669</v>
+        <v>3718292958</v>
       </c>
       <c r="M37" s="51" t="s">
         <v>504</v>
@@ -6379,11 +6379,11 @@
       <c r="N37" s="7"/>
       <c r="O37" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WS-131</v>
+        <v>O-01</v>
       </c>
       <c r="P37" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Hgr 6</v>
+        <v>Unknown</v>
       </c>
       <c r="Q37" s="39"/>
       <c r="R37" s="7"/>
@@ -6407,15 +6407,15 @@
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>37019</v>
+        <v>47242</v>
       </c>
       <c r="B38" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>MRO</v>
+        <v>OPS</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.7.7</v>
+        <v>F18FST.6.1</v>
       </c>
       <c r="D38" t="s">
         <v>269</v>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="G38" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospce Engineer</v>
+        <v>Aerospace Engineer</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>447</v>
@@ -6439,11 +6439,11 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>GDIT</v>
+        <v>EPS</v>
       </c>
       <c r="L38" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4627104947</v>
+        <v>4345795893</v>
       </c>
       <c r="M38" s="51" t="s">
         <v>505</v>
@@ -6451,11 +6451,11 @@
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-23</v>
+        <v>WS-131</v>
       </c>
       <c r="P38" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-1</v>
+        <v>469</v>
       </c>
       <c r="Q38" s="39"/>
       <c r="R38" s="7"/>
@@ -6476,18 +6476,18 @@
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>44641</v>
+        <v>28754</v>
       </c>
       <c r="B39" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>F18FST.7</v>
+        <v>F18FST.3</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.7.5</v>
+        <v>F18FST.5</v>
       </c>
       <c r="D39" t="s">
         <v>270</v>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="G39" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Project Lead</v>
+        <v>Senior Aerospace Engineer</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>448</v>
@@ -6511,11 +6511,11 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>AMPS</v>
+        <v>KBR</v>
       </c>
       <c r="L39" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4248869421</v>
+        <v>3927495770</v>
       </c>
       <c r="M39" s="51" t="s">
         <v>506</v>
@@ -6523,11 +6523,11 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-01</v>
+        <v>WS-132</v>
       </c>
       <c r="P39" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94-B</v>
+        <v>378-2</v>
       </c>
       <c r="Q39" s="39"/>
       <c r="R39" s="7"/>
@@ -6548,18 +6548,18 @@
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>78389</v>
+        <v>84267</v>
       </c>
       <c r="B40" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>MRO</v>
+        <v>F18FST.3</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.1</v>
+        <v>MRO - Leasdership</v>
       </c>
       <c r="D40" t="s">
         <v>271</v>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="G40" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Team Lead</v>
+        <v>Senior Mechanical Engineer</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>449</v>
@@ -6583,11 +6583,11 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Alutiig</v>
+        <v>EPS</v>
       </c>
       <c r="L40" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4047559713</v>
+        <v>4019514892</v>
       </c>
       <c r="M40" s="51" t="s">
         <v>507</v>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="P40" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>334-1</v>
+        <v>N/A</v>
       </c>
       <c r="Q40" s="39"/>
       <c r="R40" s="7"/>
@@ -6620,10 +6620,10 @@
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
     </row>
-    <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>68191</v>
+        <v>82110</v>
       </c>
       <c r="B41" s="49" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>MRO - Avionics</v>
+        <v>F18FST.5.3</v>
       </c>
       <c r="D41" t="s">
         <v>272</v>
@@ -6655,11 +6655,11 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>ASI</v>
+        <v>LMI</v>
       </c>
       <c r="L41" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4564514493</v>
+        <v>4351792806</v>
       </c>
       <c r="M41" s="51" t="s">
         <v>508</v>
@@ -6667,11 +6667,11 @@
       <c r="N41" s="7"/>
       <c r="O41" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WS-132</v>
+        <v>O-02</v>
       </c>
       <c r="P41" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-1</v>
+        <v>334-1</v>
       </c>
       <c r="Q41" s="39"/>
       <c r="R41" s="7"/>
@@ -6695,15 +6695,15 @@
     <row r="42" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>97494</v>
+        <v>49566</v>
       </c>
       <c r="B42" s="49" t="str">
         <f t="shared" ref="B42:B60" ca="1" si="13">CHOOSE(RANDBETWEEN(1,9),"F18FST.1","F18FST.2","F18FST.3","F18FST.4","F18FST.5","F18FST.6","F18FST.7","MRO","OPS")</f>
-        <v>F18FST.1</v>
+        <v>F18FST.7</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.7.3</v>
+        <v>F18FST.4.1</v>
       </c>
       <c r="D42" t="s">
         <v>273</v>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="G42" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer</v>
+        <v>Senior Aerospace Engineer - Deputy</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>451</v>
@@ -6727,11 +6727,11 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>EPS</v>
+        <v>ASI</v>
       </c>
       <c r="L42" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4271062563</v>
+        <v>4205485516</v>
       </c>
       <c r="M42" s="51" t="s">
         <v>509</v>
@@ -6739,11 +6739,11 @@
       <c r="N42" s="7"/>
       <c r="O42" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-01</v>
+        <v>O-23</v>
       </c>
       <c r="P42" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-2</v>
+        <v>Unknown</v>
       </c>
       <c r="Q42" s="39"/>
       <c r="R42" s="7"/>
@@ -6767,15 +6767,15 @@
     <row r="43" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>53563</v>
+        <v>12915</v>
       </c>
       <c r="B43" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.1</v>
+        <v>OPS</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>MRO - Leasdership</v>
+        <v>F18FST.2</v>
       </c>
       <c r="D43" t="s">
         <v>274</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="G43" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospace Engineer</v>
+        <v>Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>452</v>
@@ -6799,11 +6799,11 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>GDIT</v>
+        <v>Wyle</v>
       </c>
       <c r="L43" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4319954353</v>
+        <v>4665867423</v>
       </c>
       <c r="M43" s="51" t="s">
         <v>510</v>
@@ -6811,7 +6811,7 @@
       <c r="N43" s="7"/>
       <c r="O43" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-23</v>
+        <v>O-01</v>
       </c>
       <c r="P43" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6839,15 +6839,15 @@
     <row r="44" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>99921</v>
+        <v>54017</v>
       </c>
       <c r="B44" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.7</v>
+        <v>F18FST.4</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.2.7</v>
+        <v>F18FST.3.7</v>
       </c>
       <c r="D44" t="s">
         <v>275</v>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="G44" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospace Engineer</v>
+        <v>Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>453</v>
@@ -6871,11 +6871,11 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>GDIT</v>
+        <v>LMI</v>
       </c>
       <c r="L44" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>3711668169</v>
+        <v>4564071728</v>
       </c>
       <c r="M44" s="51" t="s">
         <v>511</v>
@@ -6883,11 +6883,11 @@
       <c r="N44" s="7"/>
       <c r="O44" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WS-131</v>
+        <v>O-23</v>
       </c>
       <c r="P44" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-1</v>
+        <v>94 B</v>
       </c>
       <c r="Q44" s="39"/>
       <c r="R44" s="7"/>
@@ -6908,18 +6908,18 @@
       <c r="AG44" s="7"/>
       <c r="AH44" s="7"/>
     </row>
-    <row r="45" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>94397</v>
+        <v>26479</v>
       </c>
       <c r="B45" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.7</v>
+        <v>F18FST.1</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.2</v>
+        <v>F18FST.1.3</v>
       </c>
       <c r="D45" t="s">
         <v>276</v>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="G45" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer</v>
+        <v>Mechanical Engineer</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>454</v>
@@ -6943,11 +6943,11 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>D3</v>
+        <v>Wyle</v>
       </c>
       <c r="L45" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>3853503869</v>
+        <v>4203628453</v>
       </c>
       <c r="M45" s="51" t="s">
         <v>512</v>
@@ -6955,11 +6955,11 @@
       <c r="N45" s="7"/>
       <c r="O45" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-01</v>
+        <v>WS-132</v>
       </c>
       <c r="P45" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>N/A</v>
+        <v>378-2</v>
       </c>
       <c r="Q45" s="39"/>
       <c r="R45" s="7"/>
@@ -6980,18 +6980,18 @@
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>95224</v>
+        <v>88236</v>
       </c>
       <c r="B46" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>MRO</v>
+        <v>F18FST.5</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>MRO - Avionics</v>
+        <v>F18FST.1.2</v>
       </c>
       <c r="D46" t="s">
         <v>277</v>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="G46" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospce Engineer</v>
+        <v>Senior Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>455</v>
@@ -7015,11 +7015,11 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Alutiiq</v>
+        <v>Wyle</v>
       </c>
       <c r="L46" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4648191776</v>
+        <v>4091812269</v>
       </c>
       <c r="M46" s="51" t="s">
         <v>513</v>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="P46" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-2</v>
+        <v>N/A</v>
       </c>
       <c r="Q46" s="39"/>
       <c r="R46" s="7"/>
@@ -7052,18 +7052,18 @@
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>54003</v>
+        <v>11157</v>
       </c>
       <c r="B47" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.6</v>
+        <v>F18FST.4</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.5.8</v>
+        <v>OPS - Leadership</v>
       </c>
       <c r="D47" t="s">
         <v>278</v>
@@ -7087,11 +7087,11 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>AMPS</v>
+        <v>LMI</v>
       </c>
       <c r="L47" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4481588829</v>
+        <v>3700894357</v>
       </c>
       <c r="M47" s="51" t="s">
         <v>514</v>
@@ -7099,11 +7099,11 @@
       <c r="N47" s="7"/>
       <c r="O47" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WS-132</v>
+        <v>WS-131</v>
       </c>
       <c r="P47" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>378-2</v>
       </c>
       <c r="Q47" s="39"/>
       <c r="R47" s="7"/>
@@ -7127,15 +7127,15 @@
     <row r="48" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>76881</v>
+        <v>67854</v>
       </c>
       <c r="B48" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.5</v>
+        <v>F18FST.1</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>OPS - Leadership</v>
+        <v>F18FST.4.2</v>
       </c>
       <c r="D48" t="s">
         <v>279</v>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="G48" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Deputy</v>
+        <v>Senior Mechanical Engineer</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>457</v>
@@ -7159,11 +7159,11 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>EPS</v>
+        <v>NAVAIR</v>
       </c>
       <c r="L48" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4128984052</v>
+        <v>3766559870</v>
       </c>
       <c r="M48" s="51" t="s">
         <v>515</v>
@@ -7171,7 +7171,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-01</v>
+        <v>O-23</v>
       </c>
       <c r="P48" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -7199,15 +7199,15 @@
     <row r="49" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>11631</v>
+        <v>29386</v>
       </c>
       <c r="B49" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.2</v>
+        <v>F18FST.4</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>OPS - Leadership</v>
+        <v>F18FST.4.4</v>
       </c>
       <c r="D49" t="s">
         <v>280</v>
@@ -7231,11 +7231,11 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Alutiig</v>
+        <v>GDIT</v>
       </c>
       <c r="L49" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4227321519</v>
+        <v>3810139846</v>
       </c>
       <c r="M49" s="51" t="s">
         <v>516</v>
@@ -7243,11 +7243,11 @@
       <c r="N49" s="7"/>
       <c r="O49" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-02</v>
+        <v>WS-132</v>
       </c>
       <c r="P49" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-2</v>
+        <v>472</v>
       </c>
       <c r="Q49" s="39"/>
       <c r="R49" s="7"/>
@@ -7268,18 +7268,18 @@
       <c r="AG49" s="7"/>
       <c r="AH49" s="7"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>21150</v>
+        <v>64709</v>
       </c>
       <c r="B50" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.3</v>
+        <v>F18FST.6</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>MRO - Leasdership</v>
+        <v>F18FST.3</v>
       </c>
       <c r="D50" t="s">
         <v>281</v>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="G50" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospce Engineer</v>
+        <v>Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>459</v>
@@ -7303,11 +7303,11 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Alutiig</v>
+        <v>D3</v>
       </c>
       <c r="L50" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4284280200</v>
+        <v>4047317502</v>
       </c>
       <c r="M50" s="51" t="s">
         <v>517</v>
@@ -7315,11 +7315,11 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WS-131</v>
+        <v>O-02</v>
       </c>
       <c r="P50" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>317</v>
+        <v>469</v>
       </c>
       <c r="Q50" s="39"/>
       <c r="R50" s="7"/>
@@ -7340,18 +7340,18 @@
       <c r="AG50" s="7"/>
       <c r="AH50" s="7"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>56877</v>
+        <v>63255</v>
       </c>
       <c r="B51" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>OPS</v>
+        <v>F18FST.6</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.5.5</v>
+        <v>F18FST.4</v>
       </c>
       <c r="D51" t="s">
         <v>282</v>
@@ -7364,7 +7364,7 @@
       </c>
       <c r="G51" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Project Lead</v>
+        <v>Aerospace Engineer - Project Lead</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>460</v>
@@ -7375,11 +7375,11 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>NAVAIR</v>
+        <v>ASI</v>
       </c>
       <c r="L51" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4365082801</v>
+        <v>4466782121</v>
       </c>
       <c r="M51" s="51" t="s">
         <v>518</v>
@@ -7387,11 +7387,11 @@
       <c r="N51" s="7"/>
       <c r="O51" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WS-131</v>
+        <v>WS-109</v>
       </c>
       <c r="P51" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>94 B</v>
+        <v>Unknown</v>
       </c>
       <c r="Q51" s="39"/>
       <c r="R51" s="7"/>
@@ -7412,18 +7412,18 @@
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
     </row>
-    <row r="52" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>99612</v>
+        <v>28807</v>
       </c>
       <c r="B52" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.5</v>
+        <v>F18FST.6</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.7.7</v>
+        <v>F18FST.6</v>
       </c>
       <c r="D52" t="s">
         <v>283</v>
@@ -7447,11 +7447,11 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>NTA</v>
+        <v>NAVAIR</v>
       </c>
       <c r="L52" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>3842126746</v>
+        <v>4633877215</v>
       </c>
       <c r="M52" s="51" t="s">
         <v>519</v>
@@ -7459,11 +7459,11 @@
       <c r="N52" s="7"/>
       <c r="O52" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-02</v>
+        <v>WS-132</v>
       </c>
       <c r="P52" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-2</v>
+        <v>94 B</v>
       </c>
       <c r="Q52" s="39"/>
       <c r="R52" s="7"/>
@@ -7487,15 +7487,15 @@
     <row r="53" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>31364</v>
+        <v>54878</v>
       </c>
       <c r="B53" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>OPS</v>
+        <v>F18FST.7</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.5.8</v>
+        <v>F18FST.3.4</v>
       </c>
       <c r="D53" t="s">
         <v>284</v>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="G53" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Deputy</v>
+        <v>Senior Mechanical Engineer</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>462</v>
@@ -7519,11 +7519,11 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>KBR</v>
+        <v>NTA</v>
       </c>
       <c r="L53" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>3700107190</v>
+        <v>4229156473</v>
       </c>
       <c r="M53" s="51" t="s">
         <v>520</v>
@@ -7531,11 +7531,11 @@
       <c r="N53" s="7"/>
       <c r="O53" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-01</v>
+        <v>O-02</v>
       </c>
       <c r="P53" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-1</v>
+        <v>317</v>
       </c>
       <c r="Q53" s="39"/>
       <c r="R53" s="7"/>
@@ -7559,15 +7559,15 @@
     <row r="54" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>60572</v>
+        <v>85518</v>
       </c>
       <c r="B54" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.2</v>
+        <v>MRO</v>
       </c>
       <c r="C54" s="7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>MRO - Structures</v>
+        <v>F18FST.4.3</v>
       </c>
       <c r="D54" t="s">
         <v>285</v>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="G54" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Mechanical Engineer</v>
+        <v>Senior Aerospace Engineer - Deputy</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>463</v>
@@ -7591,11 +7591,11 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>AMPS</v>
+        <v>LMI Aerospace</v>
       </c>
       <c r="L54" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4046600667</v>
+        <v>4257383732</v>
       </c>
       <c r="M54" s="51" t="s">
         <v>521</v>
@@ -7603,11 +7603,11 @@
       <c r="N54" s="7"/>
       <c r="O54" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-01</v>
+        <v>WS-131</v>
       </c>
       <c r="P54" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Unknown</v>
+        <v>472</v>
       </c>
       <c r="Q54" s="39"/>
       <c r="R54" s="7"/>
@@ -7631,15 +7631,15 @@
     <row r="55" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>22998</v>
+        <v>56927</v>
       </c>
       <c r="B55" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.1</v>
+        <v>OPS</v>
       </c>
       <c r="C55" s="7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.1.3</v>
+        <v>F18FST.4</v>
       </c>
       <c r="D55" t="s">
         <v>286</v>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="G55" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Team Lead</v>
+        <v>Senior Mechanical Engineer</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>464</v>
@@ -7663,11 +7663,11 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>AMPS</v>
+        <v>Alutiiq</v>
       </c>
       <c r="L55" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4021643035</v>
+        <v>4606087309</v>
       </c>
       <c r="M55" s="51" t="s">
         <v>522</v>
@@ -7675,11 +7675,11 @@
       <c r="N55" s="7"/>
       <c r="O55" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WS-131</v>
+        <v>WS-132</v>
       </c>
       <c r="P55" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6-2</v>
+        <v>334-1</v>
       </c>
       <c r="Q55" s="39"/>
       <c r="R55" s="7"/>
@@ -7703,15 +7703,15 @@
     <row r="56" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>73091</v>
+        <v>91012</v>
       </c>
       <c r="B56" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.6</v>
+        <v>F18FST.1</v>
       </c>
       <c r="C56" s="7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.5</v>
+        <v>F18FST.6.2</v>
       </c>
       <c r="D56" t="s">
         <v>287</v>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="G56" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Mechanical Engineer</v>
+        <v>Senior Aerospace Engineer - Team Lead</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>465</v>
@@ -7735,11 +7735,11 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>NAVAIR</v>
+        <v>NTA</v>
       </c>
       <c r="L56" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4264223971</v>
+        <v>3728397603</v>
       </c>
       <c r="M56" s="51" t="s">
         <v>523</v>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="P56" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>OFFSITE</v>
+        <v>378-2</v>
       </c>
       <c r="Q56" s="39"/>
       <c r="R56" s="7"/>
@@ -7772,18 +7772,18 @@
       <c r="AG56" s="7"/>
       <c r="AH56" s="7"/>
     </row>
-    <row r="57" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>67204</v>
+        <v>44037</v>
       </c>
       <c r="B57" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.7</v>
+        <v>F18FST.1</v>
       </c>
       <c r="C57" s="7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.4</v>
+        <v>F18FST.4.6</v>
       </c>
       <c r="D57" t="s">
         <v>288</v>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="G57" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer</v>
+        <v>Aerospace Engineer</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>466</v>
@@ -7807,11 +7807,11 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>LMI Aerospace</v>
+        <v>LMI</v>
       </c>
       <c r="L57" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4333678329</v>
+        <v>3946339474</v>
       </c>
       <c r="M57" s="51" t="s">
         <v>524</v>
@@ -7819,11 +7819,11 @@
       <c r="N57" s="7"/>
       <c r="O57" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-02</v>
+        <v>WS-109</v>
       </c>
       <c r="P57" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>378-1</v>
+        <v>317</v>
       </c>
       <c r="Q57" s="39"/>
       <c r="R57" s="7"/>
@@ -7847,15 +7847,15 @@
     <row r="58" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>29447</v>
+        <v>58376</v>
       </c>
       <c r="B58" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.6</v>
+        <v>MRO</v>
       </c>
       <c r="C58" s="7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.5.1</v>
+        <v>F18FST.4</v>
       </c>
       <c r="D58" t="s">
         <v>289</v>
@@ -7868,7 +7868,7 @@
       </c>
       <c r="G58" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Aerospace Engineer</v>
+        <v>Senior Aerospace Engineer</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>467</v>
@@ -7879,11 +7879,11 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>NAVAIR</v>
+        <v>NTA</v>
       </c>
       <c r="L58" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>3969781139</v>
+        <v>4467994104</v>
       </c>
       <c r="M58" s="51" t="s">
         <v>525</v>
@@ -7891,11 +7891,11 @@
       <c r="N58" s="7"/>
       <c r="O58" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WS-132</v>
+        <v>O-23</v>
       </c>
       <c r="P58" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>472</v>
+        <v>Unknown</v>
       </c>
       <c r="Q58" s="39"/>
       <c r="R58" s="7"/>
@@ -7919,15 +7919,15 @@
     <row r="59" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>63632</v>
+        <v>67479</v>
       </c>
       <c r="B59" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.7</v>
+        <v>F18FST.2</v>
       </c>
       <c r="C59" s="7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.6</v>
+        <v>OPS - Leadership</v>
       </c>
       <c r="D59" t="s">
         <v>290</v>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="G59" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Project Lead</v>
+        <v>Senior Aerospace Engineer</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>468</v>
@@ -7951,11 +7951,11 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>NTA</v>
+        <v>LMI Aerospace</v>
       </c>
       <c r="L59" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>4270766751</v>
+        <v>3712642737</v>
       </c>
       <c r="M59" s="51" t="s">
         <v>526</v>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="P59" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>469</v>
+        <v>334-1</v>
       </c>
       <c r="Q59" s="39"/>
       <c r="R59" s="7"/>
@@ -7988,18 +7988,18 @@
       <c r="AG59" s="7"/>
       <c r="AH59" s="7"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" ca="1" si="5"/>
-        <v>12462</v>
+        <v>89232</v>
       </c>
       <c r="B60" s="49" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>F18FST.5</v>
+        <v>F18FST.3</v>
       </c>
       <c r="C60" s="7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>F18FST.3.7</v>
+        <v>F18FST.7.2</v>
       </c>
       <c r="D60" t="s">
         <v>291</v>
@@ -8023,11 +8023,11 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>LMI</v>
+        <v>LMI Aerospace</v>
       </c>
       <c r="L60" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>3868794327</v>
+        <v>4473842035</v>
       </c>
       <c r="M60" s="51" t="s">
         <v>527</v>
@@ -8035,11 +8035,11 @@
       <c r="N60" s="7"/>
       <c r="O60" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>WS-109</v>
+        <v>WS-132</v>
       </c>
       <c r="P60" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>469</v>
+        <v>94 B</v>
       </c>
       <c r="Q60" s="39"/>
       <c r="R60" s="7"/>
@@ -8060,11 +8060,11 @@
       <c r="AG60" s="7"/>
       <c r="AH60" s="7"/>
     </row>
-    <row r="61" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="48" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,9),"F18FST.1","F18FST.2","F18FST.3","F18FST.4","F18FST.5","F18FST.6","F18FST.7","MRO","OPS")</f>
-        <v>F18FST.5</v>
+        <v>MRO</v>
       </c>
       <c r="C61" s="48" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,58),"F18FST.1",
@@ -8126,7 +8126,7 @@
 "OPS",
 "F18FST.3a",
 "F18FST.7.7")</f>
-        <v>F18FST.7.7</v>
+        <v>MRO - Avionics</v>
       </c>
       <c r="D61" t="s">
         <v>292</v>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="G61" s="41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Senior Aerospace Engineer - Team Lead</v>
+        <v>Aerospce Engineer</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>470</v>
@@ -8149,29 +8149,29 @@
       </c>
       <c r="K61" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>GDIT</v>
+        <v>AMPS</v>
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="11"/>
-        <v>3869217706</v>
+        <v>4607919941</v>
       </c>
       <c r="M61" s="51" t="s">
         <v>528</v>
       </c>
       <c r="O61" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>O-02</v>
+        <v>O-23</v>
       </c>
       <c r="P61" s="10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Unknown</v>
+        <v>94-B</v>
       </c>
       <c r="Q61" s="39"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <f ca="1">RANDBETWEEN(10000,99990)</f>
-        <v>20923</v>
+        <v>77621</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
